--- a/data/fmps/pfmc/data/groundfish_fmp_trawl_itq_tables.xlsx
+++ b/data/fmps/pfmc/data/groundfish_fmp_trawl_itq_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_allocation/data/fmps/pfmc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7ED1D0-46BB-B343-8A3B-76007B0B1590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F1570D-3EFE-CE40-92D2-1F2CA5B9C981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11480" yWindow="500" windowWidth="25360" windowHeight="17880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17040" yWindow="500" windowWidth="25360" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 6-1" sheetId="1" r:id="rId1"/>
@@ -328,32 +328,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -365,16 +365,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -383,16 +377,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -701,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1070,233 +1064,232 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D01967-4BC2-984F-9EED-D243D05CD983}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="43.59765625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.59765625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.19921875" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11" style="14"/>
+    <col min="1" max="1" width="43.59765625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="13"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="17">
         <v>0.997</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="17">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="17">
         <v>0.999</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="17">
         <v>1E-3</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="17">
         <v>1E-3</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="17">
         <v>0.999</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="17">
         <v>0.98199999999999998</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="17">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="17">
         <v>1</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="17">
         <v>0</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="17">
         <v>1</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="17">
         <v>0</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="17">
         <v>1</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="17">
         <v>0</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="17">
         <v>0.999</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="17">
         <v>1E-3</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="17">
         <v>1</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="17">
         <v>0</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="17">
         <v>1</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="17">
         <v>0</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="17">
         <v>0.98599999999999999</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="17">
         <v>1.4E-2</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="17">
         <v>1</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="17">
         <v>0</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="17">
         <v>0.999</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="17">
         <v>1E-3</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="17">
         <v>1</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="17">
         <v>0</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="17">
         <v>1</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="17">
         <v>0</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="17">
         <v>1</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="17">
         <v>0</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="17">
         <v>0.999</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="17">
         <v>1E-3</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/fmps/pfmc/data/groundfish_fmp_trawl_itq_tables.xlsx
+++ b/data/fmps/pfmc/data/groundfish_fmp_trawl_itq_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_allocation/data/fmps/pfmc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F1570D-3EFE-CE40-92D2-1F2CA5B9C981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3A65AE-075F-0145-B094-E9EDCAAAB820}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17040" yWindow="500" windowWidth="25360" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25040" yWindow="6680" windowWidth="25360" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 6-1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <r>
       <rPr>
@@ -221,6 +221,27 @@
   <si>
     <t>Other flatfish</t>
   </si>
+  <si>
+    <t>Basis</t>
+  </si>
+  <si>
+    <t>Higher non-trawl allocation to  promote greater non-trawl awccess</t>
+  </si>
+  <si>
+    <t>50:50 percieved as fair given uncertain catch history and high nearshore catch</t>
+  </si>
+  <si>
+    <t>Higher non-trawl allocation to preserve non-trawl opportinties for certain species</t>
+  </si>
+  <si>
+    <t>2003-2004 catches</t>
+  </si>
+  <si>
+    <t>2003-2005 catches</t>
+  </si>
+  <si>
+    <t>Adjusted after discovery of misattributed catches</t>
+  </si>
 </sst>
 </file>
 
@@ -229,7 +250,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -296,13 +317,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -328,45 +361,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
@@ -388,6 +388,48 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -407,9 +449,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -447,9 +489,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -482,9 +524,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -517,9 +576,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -696,364 +772,401 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="47.3984375" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="17.3984375" customWidth="1"/>
+    <col min="1" max="1" width="47.3984375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.3984375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="17.3984375" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="D1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="16">
         <v>0.95</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="16">
         <v>0.05</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="D3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="16">
         <v>0.75</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="16">
         <v>0.25</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="D4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="16">
         <v>0.95</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="16">
         <v>0.05</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="D5" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="16">
         <v>0.95</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="16">
         <v>0.05</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="D6" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="16">
         <v>0.95</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="16">
         <v>0.05</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="D7" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="16">
         <v>0.45</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="16">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="D8" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="16">
         <v>0.95</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="16">
         <v>0.05</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="D9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="16">
         <v>0.95</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="16">
         <v>0.05</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="D10" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="16">
         <v>0.95</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="16">
         <v>0.05</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="D11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="16">
         <v>0.42</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="16">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="D12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="16">
         <v>0.95</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="16">
         <v>0.05</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="D13" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="D14" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="16">
         <v>0.95</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="16">
         <v>0.05</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+      <c r="D15" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="16">
         <v>0.5</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="16">
         <v>0.5</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="D16" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="14"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="16">
         <v>0.88</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="16">
         <v>0.12</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="D17" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="14"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="16">
         <v>0.9</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="16">
         <v>0.1</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="D19" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="16">
         <v>0.81</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="16">
         <v>0.19</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="D20" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E21" s="1"/>
+      <c r="E21" s="21"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E22" s="1"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E23" s="1"/>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E24" s="1"/>
+      <c r="E24" s="21"/>
     </row>
     <row r="25" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E25" s="1"/>
+      <c r="E25" s="21"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E26" s="1"/>
+      <c r="E26" s="21"/>
     </row>
     <row r="27" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E27" s="1"/>
+      <c r="E27" s="21"/>
     </row>
     <row r="28" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E28" s="1"/>
+      <c r="E28" s="21"/>
     </row>
     <row r="29" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E29" s="1"/>
+      <c r="E29" s="21"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E30" s="10"/>
-      <c r="F30" s="9"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
     </row>
     <row r="39" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
     </row>
     <row r="40" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
     </row>
     <row r="41" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
     </row>
     <row r="42" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
     </row>
     <row r="43" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
     </row>
     <row r="44" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
     </row>
     <row r="45" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
     </row>
     <row r="46" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1070,226 +1183,226 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="43.59765625" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.59765625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.19921875" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.59765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="9"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="6">
         <v>0.997</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="6">
         <v>0.999</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="6">
         <v>1E-3</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="6">
         <v>1E-3</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="6">
         <v>0.999</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="6">
         <v>0.98199999999999998</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="6">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="6">
         <v>0</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="6">
         <v>0</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="6">
         <v>0</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="6">
         <v>0.999</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="6">
         <v>1E-3</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="6">
         <v>1</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="6">
         <v>0</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="6">
         <v>0</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="6">
         <v>0.98599999999999999</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="6">
         <v>1.4E-2</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="6">
         <v>1</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="6">
         <v>0</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="6">
         <v>0.999</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="6">
         <v>1E-3</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="6">
         <v>1</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="6">
         <v>0</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="6">
         <v>1</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="6">
         <v>0</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="6">
         <v>1</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="6">
         <v>0</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="6">
         <v>0.999</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="6">
         <v>1E-3</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
